--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -7,72 +7,296 @@
     <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
   </bookViews>
   <sheets>
-    <sheet name="生产单位信息" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
+    <sheet name="客户信息" sheetId="4" r:id="rId2"/>
+    <sheet name="合同信息" sheetId="5" r:id="rId3"/>
+    <sheet name="项目基本资料" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mlx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mmc</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wmc</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xmfzr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xmfzrlxdh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+  <si>
+    <t>项目类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出监教育2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省武汉市洪山体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作方单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照注册号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填报人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投入劳动力人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目投资额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备台（套）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业自有设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户投入设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目年收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月人均收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电、房租等成本费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险评估附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>027-88888888</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>027-7777777</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>027-999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张辉（法定代表人）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉市黄陂区佳海都市工业基地第A12幢2A号房</t>
+  </si>
+  <si>
+    <t>420116000062378</t>
+  </si>
+  <si>
+    <t>30000.000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXL180/185</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉市锦辉兄弟服装加工有限公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三监区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次交货根据质量标准，经仓库及跟单员验收确认后，交付总货款的:  60%</t>
+  </si>
+  <si>
+    <t>027-66666666</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>较高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz
+ABCDEFGHIJKLMNOPQRSTUVWXYZ
+~!@#$%^&amp;*()_+{}|:"&gt;?&lt;+-*/...
+项目评估</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员（admin）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员（admin）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -84,20 +308,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,13 +361,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -407,29 +689,58 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -442,20 +753,303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <cols>
+    <col min="1" max="1" width="33.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="28.25" style="5" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="79.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="59" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="57">
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="L3" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
@@ -691,8 +691,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -756,7 +756,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -829,7 +829,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -886,7 +886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出监教育2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>湖北省武汉市洪山体育</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,6 +286,10 @@
   <si>
     <t>管理员（admin）</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出监教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -691,8 +691,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -731,16 +731,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -772,48 +772,48 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -850,73 +850,73 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="L2" s="4"/>
     </row>
@@ -932,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -954,88 +954,88 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="57">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:14">

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8508" windowHeight="4536" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
@@ -295,8 +295,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -400,11 +400,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -478,6 +483,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -512,6 +518,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,25 +694,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -725,7 +732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -752,25 +759,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.8984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.3984375" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -793,7 +800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
@@ -825,30 +832,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.09765625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.3984375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.09765625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="28.25" style="5" customWidth="1"/>
-    <col min="12" max="12" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.09765625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="28.19921875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="15.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -886,7 +893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -929,30 +936,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="79.125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="17.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="79.09765625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="59" style="5" customWidth="1"/>
     <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -996,7 +1003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="57">
+    <row r="2" spans="1:14" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -1038,7 +1045,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L3" s="4"/>
     </row>
   </sheetData>
@@ -1050,13 +1057,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8508" windowHeight="4536" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>项目类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,18 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>027-88888888</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>027-7777777</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>027-999999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张辉（法定代表人）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -238,15 +226,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2017-05-31</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>第一次交货根据质量标准，经仓库及跟单员验收确认后，交付总货款的:  60%</t>
-  </si>
-  <si>
-    <t>027-66666666</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>40000</t>
@@ -291,12 +271,47 @@
     <t>出监教育</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>027-99999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>027-88888888</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>027-77777777</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>027-66666666</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\Desktop\关于武昌监狱现场实施相关事宜.doc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\Desktop\武昌监狱软件平台以及硬件相关需求.docx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz
+ABCDEFGHIJKLMNOPQRSTUVWXYZ
+~!@#$%^&amp;*()_+{}|:"&gt;?&lt;+-*/...
+备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-06-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -409,7 +424,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -483,7 +498,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -518,7 +532,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -694,25 +707,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.19921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -732,22 +745,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -759,25 +772,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="33.8984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.3984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -800,27 +813,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -832,30 +845,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.3984375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.09765625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="28.19921875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="15.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="28.25" style="5" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -893,39 +906,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -936,30 +951,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="79.09765625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="17.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="79.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="59" style="5" customWidth="1"/>
     <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1003,49 +1018,51 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="57">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="N2" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="L3" s="4"/>
     </row>
   </sheetData>
@@ -1057,13 +1074,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
     <sheet name="客户信息" sheetId="4" r:id="rId2"/>
     <sheet name="合同信息" sheetId="5" r:id="rId3"/>
     <sheet name="项目基本资料" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="劳动合同" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>项目类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +306,42 @@
   <si>
     <t>2017-06-10</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签订日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -712,7 +749,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -848,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -955,7 +992,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1075,6 +1112,96 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="28.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -12,14 +12,15 @@
     <sheet name="合同信息" sheetId="5" r:id="rId3"/>
     <sheet name="项目基本资料" sheetId="6" r:id="rId4"/>
     <sheet name="劳动合同" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="合同明细" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>项目类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +343,56 @@
   <si>
     <t>附件</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手输型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>款式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXL_180/185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动系列</t>
+  </si>
+  <si>
+    <t>加大</t>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JEANS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1112,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1128,11 +1179,11 @@
     <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
     <col min="9" max="9" width="28.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="6"/>
+    <col min="10" max="11" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>71</v>
       </c>
@@ -1161,10 +1212,13 @@
         <v>78</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>48</v>
@@ -1189,6 +1243,9 @@
         <v>66</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1201,6 +1258,72 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t>项目类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,6 +392,22 @@
   </si>
   <si>
     <t>JEANS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-05-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-06-18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同内容</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -864,7 +880,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1165,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1178,7 +1194,7 @@
     <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="28.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="33.875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.375" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="6"/>
   </cols>
@@ -1229,21 +1245,23 @@
       <c r="D2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="F2" s="4" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>67</v>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
@@ -815,8 +815,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -1,380 +1,274 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
-    <sheet name="客户信息" sheetId="4" r:id="rId2"/>
-    <sheet name="合同信息" sheetId="5" r:id="rId3"/>
-    <sheet name="项目基本资料" sheetId="6" r:id="rId4"/>
-    <sheet name="劳动合同" sheetId="7" r:id="rId5"/>
-    <sheet name="合同明细" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="劳动项目" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="客户信息" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="合同信息" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="项目基本资料" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="劳动合同" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="合同明细" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+  <si>
+    <t>项目编号</t>
+  </si>
   <si>
     <t>项目类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43040004</t>
   </si>
   <si>
     <t>自主生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出监教育</t>
   </si>
   <si>
     <t>湖北省武汉市洪山体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员（admin）</t>
+  </si>
+  <si>
+    <t>027-99999999</t>
   </si>
   <si>
     <t>合作方单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>营业执照注册号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>传真电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注册资金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉市锦辉兄弟服装加工有限公司</t>
+  </si>
+  <si>
+    <t>张辉（法定代表人）</t>
+  </si>
+  <si>
+    <t>武汉市黄陂区佳海都市工业基地第A12幢2A号房</t>
+  </si>
+  <si>
+    <t>420116000062378</t>
+  </si>
+  <si>
+    <t>027-88888888</t>
+  </si>
+  <si>
+    <t>027-77777777</t>
+  </si>
+  <si>
+    <t>30000.000000</t>
   </si>
   <si>
     <t>产品型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生产单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>考核方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合同编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>付款条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>填报人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合同附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXL180/185</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>三监区</t>
+  </si>
+  <si>
+    <t>个人</t>
+  </si>
+  <si>
+    <t>2017-06-10</t>
+  </si>
+  <si>
+    <t>第一次交货根据质量标准，经仓库及跟单员验收确认后，交付总货款的:  60%</t>
+  </si>
+  <si>
+    <t>027-66666666</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\Desktop\关于武昌监狱现场实施相关事宜.doc</t>
   </si>
   <si>
     <t>投入劳动力人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目投资额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设备台（套）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>企业自有设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>客户投入设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目年收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>月人均收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>水电、房租等成本费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>风险等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>风险评估附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目评估</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>评估人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张辉（法定代表人）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉市黄陂区佳海都市工业基地第A12幢2A号房</t>
-  </si>
-  <si>
-    <t>420116000062378</t>
-  </si>
-  <si>
-    <t>30000.000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXL180/185</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>50</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉市锦辉兄弟服装加工有限公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>三监区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次交货根据质量标准，经仓库及跟单员验收确认后，交付总货款的:  60%</t>
-  </si>
-  <si>
-    <t>40000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>800</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>较高</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\Desktop\武昌监狱软件平台以及硬件相关需求.docx</t>
   </si>
   <si>
     <t>abcdefghijklmnopqrstuvwxyz
 ABCDEFGHIJKLMNOPQRSTUVWXYZ
 ~!@#$%^&amp;*()_+{}|:"&gt;?&lt;+-*/...
 项目评估</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员（admin）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员（admin）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>出监教育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>027-99999999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>027-88888888</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>027-77777777</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>027-66666666</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\Desktop\关于武昌监狱现场实施相关事宜.doc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\Desktop\武昌监狱软件平台以及硬件相关需求.docx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>abcdefghijklmnopqrstuvwxyz
 ABCDEFGHIJKLMNOPQRSTUVWXYZ
 ~!@#$%^&amp;*()_+{}|:"&gt;?&lt;+-*/...
 备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-06-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合同名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>签订日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>客户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同内容</t>
   </si>
   <si>
     <t>附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-05-01</t>
+  </si>
+  <si>
+    <t>2017-06-18</t>
   </si>
   <si>
     <t>手输型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>款式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>XXL_180/185</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>运动系列</t>
@@ -383,91 +277,67 @@
     <t>加大</t>
   </si>
   <si>
+    <t>JEANS</t>
+  </si>
+  <si>
     <t>5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>45</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JEANS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-05-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-06-18</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
       <sz val="16"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,33 +367,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -811,30 +675,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col bestFit="1" customWidth="1" max="2" min="1" style="5" width="12.5"/>
+    <col customWidth="1" max="3" min="3" style="5" width="16.125"/>
+    <col customWidth="1" max="4" min="4" style="5" width="28.25"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="17.25"/>
+    <col customWidth="1" max="6" min="6" style="5" width="16.375"/>
+    <col customWidth="1" max="9" min="7" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="10" style="2" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -850,508 +718,528 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="33.875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="22.75"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="46"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="5" width="22.125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="15.375"/>
+    <col customWidth="1" max="7" min="6" style="5" width="16.375"/>
+    <col customWidth="1" max="10" min="8" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="11" style="2" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1">
+    <row customFormat="1" r="2" s="8" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="28.25" style="5" customWidth="1"/>
-    <col min="12" max="12" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="6"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="22.125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="12.5"/>
+    <col customWidth="1" max="3" min="3" style="5" width="16.125"/>
+    <col customWidth="1" max="4" min="4" style="5" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="15.375"/>
+    <col customWidth="1" max="7" min="6" style="5" width="16.375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="5" width="22.125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="12.5"/>
+    <col customWidth="1" max="10" min="10" style="5" width="16.125"/>
+    <col customWidth="1" max="11" min="11" style="5" width="28.25"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="5" width="15.375"/>
+    <col customWidth="1" max="15" min="13" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="16" style="6" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="79.125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="17.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="6"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="22.125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="16.125"/>
+    <col bestFit="1" customWidth="1" max="5" min="3" style="5" width="19.125"/>
+    <col bestFit="1" customWidth="1" max="7" min="6" style="5" width="16.125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="5" width="31.375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="7.25"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="13"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="19.125"/>
+    <col customWidth="1" max="12" min="12" style="5" width="79.125"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="5" width="17.25"/>
+    <col customWidth="1" max="14" min="14" style="5" width="59"/>
+    <col customWidth="1" max="17" min="15" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="18" style="6" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="31.5" r="1" s="1" spans="1:14">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="57" r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="57">
-      <c r="A2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="L3" s="4"/>
+      <c r="L3" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="33.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col customWidth="1" max="1" min="1" style="5" width="16.125"/>
+    <col customWidth="1" max="2" min="2" style="5" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
+    <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="22.125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="5" width="12.5"/>
+    <col customWidth="1" max="8" min="8" style="5" width="16.125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="33.875"/>
+    <col bestFit="1" customWidth="1" max="11" min="10" style="5" width="15.375"/>
+    <col customWidth="1" max="14" min="12" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="15" style="6" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:11">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col customWidth="1" max="1" min="1" style="5" width="16.125"/>
+    <col customWidth="1" max="2" min="2" style="5" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
+    <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="22.125"/>
+    <col customWidth="1" max="9" min="7" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="10" style="6" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="4"/>
+    <workbookView xWindow="270" yWindow="510" windowWidth="22335" windowHeight="3375"/>
   </bookViews>
   <sheets>
-    <sheet name="劳动项目" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="客户信息" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="合同信息" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="项目基本资料" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="劳动合同" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="合同明细" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
+    <sheet name="客户信息" sheetId="2" r:id="rId2"/>
+    <sheet name="合同信息" sheetId="3" r:id="rId3"/>
+    <sheet name="项目基本资料" sheetId="4" r:id="rId4"/>
+    <sheet name="劳动合同" sheetId="5" r:id="rId5"/>
+    <sheet name="合同明细" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>项目编号</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>自主生产</t>
-  </si>
-  <si>
-    <t>出监教育</t>
   </si>
   <si>
     <t>湖北省武汉市洪山体育</t>
@@ -284,60 +281,63 @@
   </si>
   <si>
     <t>45</t>
+  </si>
+  <si>
+    <t>出监教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <sz val="16"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,27 +367,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -675,29 +676,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="1" style="5" width="12.5"/>
-    <col customWidth="1" max="3" min="3" style="5" width="16.125"/>
-    <col customWidth="1" max="4" min="4" style="5" width="28.25"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="17.25"/>
-    <col customWidth="1" max="6" min="6" style="5" width="16.375"/>
-    <col customWidth="1" max="9" min="7" style="2" width="9"/>
-    <col customWidth="1" max="16384" min="10" style="2" width="9"/>
+    <col min="1" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="5" customWidth="1"/>
+    <col min="7" max="10" width="9" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -725,395 +723,383 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="33.875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="22.75"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="46"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="5" width="22.125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="15.375"/>
-    <col customWidth="1" max="7" min="6" style="5" width="16.375"/>
-    <col customWidth="1" max="10" min="8" style="2" width="9"/>
-    <col customWidth="1" max="16384" min="11" style="2" width="9"/>
+    <col min="1" max="1" width="33.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
+    <col min="8" max="11" width="9" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row customFormat="1" r="2" s="8" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="22.125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="12.5"/>
-    <col customWidth="1" max="3" min="3" style="5" width="16.125"/>
-    <col customWidth="1" max="4" min="4" style="5" width="15.875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="15.375"/>
-    <col customWidth="1" max="7" min="6" style="5" width="16.375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="5" width="22.125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="12.5"/>
-    <col customWidth="1" max="10" min="10" style="5" width="16.125"/>
-    <col customWidth="1" max="11" min="11" style="5" width="28.25"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="5" width="15.375"/>
-    <col customWidth="1" max="15" min="13" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="16" style="6" width="9"/>
+    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="28.25" style="5" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="22.125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="16.125"/>
-    <col bestFit="1" customWidth="1" max="5" min="3" style="5" width="19.125"/>
-    <col bestFit="1" customWidth="1" max="7" min="6" style="5" width="16.125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="5" width="31.375"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="7.25"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="13"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="19.125"/>
-    <col customWidth="1" max="12" min="12" style="5" width="79.125"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="5" width="17.25"/>
-    <col customWidth="1" max="14" min="14" style="5" width="59"/>
-    <col customWidth="1" max="17" min="15" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="18" style="6" width="9"/>
+    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="79.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="59" style="5" customWidth="1"/>
+    <col min="15" max="18" width="9" style="6" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="31.5" r="1" s="1" spans="1:14">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="57" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row customHeight="1" ht="57" r="2" spans="1:14">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="L3" s="4" t="n"/>
+      <c r="L3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="16.125"/>
-    <col customWidth="1" max="2" min="2" style="5" width="15.875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
-    <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="22.125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="5" width="12.5"/>
-    <col customWidth="1" max="8" min="8" style="5" width="16.125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="33.875"/>
-    <col bestFit="1" customWidth="1" max="11" min="10" style="5" width="15.375"/>
-    <col customWidth="1" max="14" min="12" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="15" style="6" width="9"/>
+    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="33.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1121,125 +1107,119 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="16.125"/>
-    <col customWidth="1" max="2" min="2" style="5" width="15.875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
-    <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="22.125"/>
-    <col customWidth="1" max="9" min="7" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="10" style="6" width="9"/>
+    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="510" windowWidth="22335" windowHeight="3375"/>
+    <workbookView xWindow="390" yWindow="525" windowWidth="22335" windowHeight="9675" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,9 @@
     <t>自主生产</t>
   </si>
   <si>
+    <t>出监教育</t>
+  </si>
+  <si>
     <t>湖北省武汉市洪山体育</t>
   </si>
   <si>
@@ -281,10 +284,6 @@
   </si>
   <si>
     <t>45</t>
-  </si>
-  <si>
-    <t>出监教育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -680,8 +679,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -691,8 +690,8 @@
     <col min="4" max="4" width="28.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.375" style="5" customWidth="1"/>
-    <col min="7" max="10" width="9" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="7" max="11" width="9" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
@@ -723,16 +722,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -758,54 +757,54 @@
     <col min="4" max="4" width="22.125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
-    <col min="8" max="11" width="9" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="8" max="12" width="9" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +819,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -836,82 +835,82 @@
     <col min="10" max="10" width="16.125" style="5" customWidth="1"/>
     <col min="11" max="11" width="28.25" style="5" customWidth="1"/>
     <col min="12" max="12" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="6"/>
+    <col min="13" max="17" width="9" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -942,96 +941,96 @@
     <col min="12" max="12" width="79.125" style="5" customWidth="1"/>
     <col min="13" max="13" width="17.25" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="59" style="5" customWidth="1"/>
-    <col min="15" max="18" width="9" style="6" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="6"/>
+    <col min="15" max="19" width="9" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="57" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1048,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1063,8 +1062,8 @@
     <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
     <col min="9" max="9" width="33.875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="6"/>
+    <col min="12" max="16" width="9" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1">
@@ -1072,34 +1071,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1107,34 +1106,34 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1159,48 +1158,48 @@
     <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="6"/>
+    <col min="7" max="11" width="9" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="22335" windowHeight="9675" activeTab="4"/>
+    <workbookView xWindow="390" yWindow="525" windowWidth="22335" windowHeight="9675" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
   <si>
     <t>项目编号</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>个人</t>
-  </si>
-  <si>
-    <t>2017-06-10</t>
   </si>
   <si>
     <t>第一次交货根据质量标准，经仓库及跟单员验收确认后，交付总货款的:  60%</t>
@@ -250,40 +247,54 @@
     <t>附件</t>
   </si>
   <si>
+    <t>手输型号</t>
+  </si>
+  <si>
+    <t>款式</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>XXL_180/185</t>
+  </si>
+  <si>
+    <t>运动系列</t>
+  </si>
+  <si>
+    <t>加大</t>
+  </si>
+  <si>
+    <t>JEANS</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2017-08-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2017-05-01</t>
-  </si>
-  <si>
-    <t>2017-06-18</t>
-  </si>
-  <si>
-    <t>手输型号</t>
-  </si>
-  <si>
-    <t>款式</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>品牌</t>
-  </si>
-  <si>
-    <t>XXL_180/185</t>
-  </si>
-  <si>
-    <t>运动系列</t>
-  </si>
-  <si>
-    <t>加大</t>
-  </si>
-  <si>
-    <t>JEANS</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉市锦辉兄弟服装加工有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二监区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-08-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -680,7 +691,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -746,7 +757,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -786,7 +797,7 @@
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -819,7 +830,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -898,19 +909,19 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -947,90 +958,90 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="57" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1047,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1074,13 +1085,13 @@
         <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>32</v>
@@ -1092,13 +1103,13 @@
         <v>30</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1115,13 +1126,13 @@
         <v>41</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>41</v>
@@ -1130,10 +1141,10 @@
         <v>18</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1159,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1164,16 +1175,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>26</v>
@@ -1184,22 +1195,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="22335" windowHeight="9675" activeTab="3"/>
+    <workbookView activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
-    <sheet name="客户信息" sheetId="2" r:id="rId2"/>
-    <sheet name="合同信息" sheetId="3" r:id="rId3"/>
-    <sheet name="项目基本资料" sheetId="4" r:id="rId4"/>
-    <sheet name="劳动合同" sheetId="5" r:id="rId5"/>
-    <sheet name="合同明细" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
+    <sheet name="劳动项目" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="客户信息" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="合同信息" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="项目基本资料" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="劳动合同" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="合同明细" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>项目编号</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>个人</t>
+  </si>
+  <si>
+    <t>2017-08-10</t>
   </si>
   <si>
     <t>第一次交货根据质量标准，经仓库及跟单员验收确认后，交付总货款的:  60%</t>
@@ -247,6 +250,32 @@
     <t>附件</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>第二监区的合同</t>
+  </si>
+  <si>
+    <t>225000</t>
+  </si>
+  <si>
+    <t>2017-05-01</t>
+  </si>
+  <si>
+    <t>2017-08-18</t>
+  </si>
+  <si>
+    <t>二监区</t>
+  </si>
+  <si>
+    <t>合同内容
+合同内容
+合同内容
+合同内容
+合同内容
+合同内容</t>
+  </si>
+  <si>
     <t>手输型号</t>
   </si>
   <si>
@@ -275,79 +304,60 @@
   </si>
   <si>
     <t>45</t>
-  </si>
-  <si>
-    <t>2017-08-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-05-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉市锦辉兄弟服装加工有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二监区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-08-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
       <sz val="16"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,28 +387,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -686,26 +695,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="5" customWidth="1"/>
-    <col min="7" max="11" width="9" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col bestFit="1" customWidth="1" max="2" min="1" style="5" width="12.5"/>
+    <col customWidth="1" max="3" min="3" style="5" width="16.125"/>
+    <col customWidth="1" max="4" min="4" style="5" width="28.25"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="17.25"/>
+    <col customWidth="1" max="6" min="6" style="5" width="16.375"/>
+    <col customWidth="1" max="12" min="7" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="13" style="2" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -746,33 +758,36 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
-    <col min="8" max="12" width="9" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="33.875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="22.75"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="46"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="5" width="22.125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="15.375"/>
+    <col customWidth="1" max="7" min="6" style="5" width="16.375"/>
+    <col customWidth="1" max="13" min="8" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="14" style="2" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -795,9 +810,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1">
+    <row customFormat="1" r="2" s="8" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -819,38 +834,41 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="28.25" style="5" customWidth="1"/>
-    <col min="12" max="12" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="9" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="6"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="22.125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="12.5"/>
+    <col customWidth="1" max="3" min="3" style="5" width="16.125"/>
+    <col customWidth="1" max="4" min="4" style="5" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="15.375"/>
+    <col customWidth="1" max="7" min="6" style="5" width="16.375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="5" width="22.125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="12.5"/>
+    <col customWidth="1" max="10" min="10" style="5" width="16.125"/>
+    <col customWidth="1" max="11" min="11" style="5" width="28.25"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="5" width="15.375"/>
+    <col customWidth="1" max="18" min="13" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="19" style="6" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -907,177 +925,184 @@
       <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="79.125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="17.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59" style="5" customWidth="1"/>
-    <col min="15" max="19" width="9" style="6" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="6"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="22.125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="16.125"/>
+    <col bestFit="1" customWidth="1" max="5" min="3" style="5" width="19.125"/>
+    <col bestFit="1" customWidth="1" max="7" min="6" style="5" width="16.125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="5" width="31.375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="7.25"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="13"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="19.125"/>
+    <col customWidth="1" max="12" min="12" style="5" width="79.125"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="5" width="17.25"/>
+    <col customWidth="1" max="14" min="14" style="5" width="59"/>
+    <col customWidth="1" max="20" min="15" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="21" style="6" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="31.5" r="1" s="1" spans="1:14">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="57" customHeight="1">
+    <row customHeight="1" ht="57" r="2" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="L3" s="4"/>
+      <c r="L3" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="33.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="9" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="6"/>
+    <col customWidth="1" max="1" min="1" style="5" width="16.125"/>
+    <col customWidth="1" max="2" min="2" style="5" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
+    <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="22.125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="5" width="12.5"/>
+    <col customWidth="1" max="8" min="8" style="5" width="16.125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="33.875"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="15.375"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="70.5"/>
+    <col customWidth="1" max="17" min="12" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="18" style="6" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1085,13 +1110,13 @@
         <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>32</v>
@@ -1103,36 +1128,36 @@
         <v>30</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row customHeight="1" ht="85.5" r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>41</v>
@@ -1140,51 +1165,54 @@
       <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>71</v>
+      <c r="J2" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="9" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col customWidth="1" max="1" min="1" style="5" width="16.125"/>
+    <col customWidth="1" max="2" min="2" style="5" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
+    <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="22.125"/>
+    <col customWidth="1" max="12" min="7" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="13" style="6" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>26</v>
@@ -1195,41 +1223,44 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -40,7 +40,7 @@
     <t>联系电话</t>
   </si>
   <si>
-    <t>43040004</t>
+    <t>43040005</t>
   </si>
   <si>
     <t>自主生产</t>
@@ -250,7 +250,7 @@
     <t>附件</t>
   </si>
   <si>
-    <t>29</t>
+    <t>34</t>
   </si>
   <si>
     <t>第二监区的合同</t>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="4"/>
+    <workbookView xWindow="270" yWindow="510" windowWidth="22335" windowHeight="3375" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="劳动项目" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="客户信息" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="合同信息" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="项目基本资料" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="劳动合同" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="合同明细" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
+    <sheet name="客户信息" sheetId="2" r:id="rId2"/>
+    <sheet name="合同信息" sheetId="3" r:id="rId3"/>
+    <sheet name="项目基本资料" sheetId="4" r:id="rId4"/>
+    <sheet name="劳动合同" sheetId="5" r:id="rId5"/>
+    <sheet name="合同明细" sheetId="6" r:id="rId6"/>
+    <sheet name="生产计划" sheetId="8" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>项目编号</t>
   </si>
@@ -40,7 +40,7 @@
     <t>联系电话</t>
   </si>
   <si>
-    <t>43040005</t>
+    <t>43040004</t>
   </si>
   <si>
     <t>自主生产</t>
@@ -250,7 +250,7 @@
     <t>附件</t>
   </si>
   <si>
-    <t>34</t>
+    <t>37</t>
   </si>
   <si>
     <t>第二监区的合同</t>
@@ -310,54 +310,53 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <sz val="16"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,27 +386,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -695,29 +695,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="1" style="5" width="12.5"/>
-    <col customWidth="1" max="3" min="3" style="5" width="16.125"/>
-    <col customWidth="1" max="4" min="4" style="5" width="28.25"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="17.25"/>
-    <col customWidth="1" max="6" min="6" style="5" width="16.375"/>
-    <col customWidth="1" max="12" min="7" style="2" width="9"/>
-    <col customWidth="1" max="16384" min="13" style="2" width="9"/>
+    <col min="1" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="5" customWidth="1"/>
+    <col min="7" max="13" width="9" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -758,36 +755,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="33.875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="22.75"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="46"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="5" width="22.125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="15.375"/>
-    <col customWidth="1" max="7" min="6" style="5" width="16.375"/>
-    <col customWidth="1" max="13" min="8" style="2" width="9"/>
-    <col customWidth="1" max="16384" min="14" style="2" width="9"/>
+    <col min="1" max="1" width="33.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
+    <col min="8" max="14" width="9" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -810,7 +804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="8" spans="1:7">
+    <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -834,41 +828,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="22.125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="12.5"/>
-    <col customWidth="1" max="3" min="3" style="5" width="16.125"/>
-    <col customWidth="1" max="4" min="4" style="5" width="15.875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="15.375"/>
-    <col customWidth="1" max="7" min="6" style="5" width="16.375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="5" width="22.125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="12.5"/>
-    <col customWidth="1" max="10" min="10" style="5" width="16.125"/>
-    <col customWidth="1" max="11" min="11" style="5" width="28.25"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="5" width="15.375"/>
-    <col customWidth="1" max="18" min="13" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="19" style="6" width="9"/>
+    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="28.25" style="5" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="9" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -925,7 +916,7 @@
       <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="4" t="n"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
         <v>42</v>
       </c>
@@ -943,41 +934,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="22.125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="16.125"/>
-    <col bestFit="1" customWidth="1" max="5" min="3" style="5" width="19.125"/>
-    <col bestFit="1" customWidth="1" max="7" min="6" style="5" width="16.125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="5" width="31.375"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="7.25"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="13"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="19.125"/>
-    <col customWidth="1" max="12" min="12" style="5" width="79.125"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="5" width="17.25"/>
-    <col customWidth="1" max="14" min="14" style="5" width="59"/>
-    <col customWidth="1" max="20" min="15" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="21" style="6" width="9"/>
+    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="79.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="59" style="5" customWidth="1"/>
+    <col min="15" max="21" width="9" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="31.5" r="1" s="1" spans="1:14">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -1021,7 +1009,7 @@
         <v>59</v>
       </c>
     </row>
-    <row customHeight="1" ht="57" r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="57" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
@@ -1066,43 +1054,207 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="L3" s="4" t="n"/>
+      <c r="L3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="33.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="70.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="9" style="6" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="85.5" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="9" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="16.125"/>
-    <col customWidth="1" max="2" min="2" style="5" width="15.875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
-    <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="22.125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="5" width="12.5"/>
-    <col customWidth="1" max="8" min="8" style="5" width="16.125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="33.875"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="15.375"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="70.5"/>
-    <col customWidth="1" max="17" min="12" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="18" style="6" width="9"/>
+    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="33.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="70.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="9" style="6" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1289,7 @@
         <v>73</v>
       </c>
     </row>
-    <row customHeight="1" ht="85.5" r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="85.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1173,94 +1325,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="16.125"/>
-    <col customWidth="1" max="2" min="2" style="5" width="15.875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
-    <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="22.125"/>
-    <col customWidth="1" max="12" min="7" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="13" style="6" width="9"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
   <si>
     <t>项目编号</t>
   </si>
@@ -304,6 +304,58 @@
   </si>
   <si>
     <t>45</t>
+  </si>
+  <si>
+    <t>计划代号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划起日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划止日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监狱核算金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐日计划完成数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -700,7 +752,8 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -766,7 +819,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -839,7 +892,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -945,7 +998,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1068,7 +1121,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1169,7 +1222,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1232,10 +1285,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1244,89 +1299,62 @@
     <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="33.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="70.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="9" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9" style="6" customWidth="1"/>
     <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="85.5" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>45</v>
+        <v>101</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="510" windowWidth="22335" windowHeight="3375" activeTab="6"/>
+    <workbookView activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
-    <sheet name="客户信息" sheetId="2" r:id="rId2"/>
-    <sheet name="合同信息" sheetId="3" r:id="rId3"/>
-    <sheet name="项目基本资料" sheetId="4" r:id="rId4"/>
-    <sheet name="劳动合同" sheetId="5" r:id="rId5"/>
-    <sheet name="合同明细" sheetId="6" r:id="rId6"/>
-    <sheet name="生产计划" sheetId="8" r:id="rId7"/>
+    <sheet name="劳动项目" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="客户信息" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="合同信息" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="项目基本资料" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="劳动合同" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="合同明细" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="生产计划" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>项目编号</t>
   </si>
@@ -307,108 +307,90 @@
   </si>
   <si>
     <t>计划代号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划起日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划止日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>监狱核算金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>逐日计划完成数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz
+ABCDEFGHIJKLMNOPQRSTUVWXYZ
+~!@#$%^&amp;*()_+{}|:"&gt;?&lt;+-*/...
+计划内容</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
       <sz val="16"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,28 +420,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -747,27 +728,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="B4" pane="bottomLeft" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="5" customWidth="1"/>
-    <col min="7" max="13" width="9" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col bestFit="1" customWidth="1" max="2" min="1" style="5" width="12.5"/>
+    <col customWidth="1" max="3" min="3" style="5" width="16.125"/>
+    <col customWidth="1" max="4" min="4" style="5" width="28.25"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="17.25"/>
+    <col customWidth="1" max="6" min="6" style="5" width="16.375"/>
+    <col customWidth="1" max="13" min="7" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="14" style="2" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -808,33 +792,36 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
-    <col min="8" max="14" width="9" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="33.875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="22.75"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="46"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="5" width="22.125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="15.375"/>
+    <col customWidth="1" max="7" min="6" style="5" width="16.375"/>
+    <col customWidth="1" max="14" min="8" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="15" style="2" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -857,7 +844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1">
+    <row customFormat="1" r="2" s="8" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -881,38 +868,41 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="28.25" style="5" customWidth="1"/>
-    <col min="12" max="12" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="9" style="6" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="6"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="22.125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="12.5"/>
+    <col customWidth="1" max="3" min="3" style="5" width="16.125"/>
+    <col customWidth="1" max="4" min="4" style="5" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="15.375"/>
+    <col customWidth="1" max="7" min="6" style="5" width="16.375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="5" width="22.125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="12.5"/>
+    <col customWidth="1" max="10" min="10" style="5" width="16.125"/>
+    <col customWidth="1" max="11" min="11" style="5" width="28.25"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="5" width="15.375"/>
+    <col customWidth="1" max="19" min="13" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="20" style="6" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -969,7 +959,7 @@
       <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="s">
         <v>42</v>
       </c>
@@ -987,38 +977,41 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="79.125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="17.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59" style="5" customWidth="1"/>
-    <col min="15" max="21" width="9" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="6"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="22.125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="16.125"/>
+    <col bestFit="1" customWidth="1" max="5" min="3" style="5" width="19.125"/>
+    <col bestFit="1" customWidth="1" max="7" min="6" style="5" width="16.125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="5" width="31.375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="7.25"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="13"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="19.125"/>
+    <col customWidth="1" max="12" min="12" style="5" width="79.125"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="5" width="17.25"/>
+    <col customWidth="1" max="14" min="14" style="5" width="59"/>
+    <col customWidth="1" max="21" min="15" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="22" style="6" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="31.5" r="1" s="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -1062,7 +1055,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="57" customHeight="1">
+    <row customHeight="1" ht="57" r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
@@ -1107,40 +1100,43 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="L3" s="4"/>
+      <c r="L3" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="33.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="70.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="9" style="6" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="6"/>
+    <col customWidth="1" max="1" min="1" style="5" width="16.125"/>
+    <col customWidth="1" max="2" min="2" style="5" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
+    <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="22.125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="5" width="12.5"/>
+    <col customWidth="1" max="8" min="8" style="5" width="16.125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="33.875"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="15.375"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="70.5"/>
+    <col customWidth="1" max="18" min="12" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="19" style="6" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1171,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="85.5" customHeight="1">
+    <row customHeight="1" ht="85.5" r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1211,32 +1207,35 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="9" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="6"/>
+    <col customWidth="1" max="1" min="1" style="5" width="16.125"/>
+    <col customWidth="1" max="2" min="2" style="5" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
+    <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="22.125"/>
+    <col customWidth="1" max="13" min="7" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="14" style="6" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>81</v>
       </c>
@@ -1277,41 +1276,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="L2" pane="bottomLeft" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9" style="6" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="6"/>
+    <col customWidth="1" max="1" min="1" style="5" width="16.125"/>
+    <col customWidth="1" max="2" min="2" style="5" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
+    <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="13"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="5" width="12.5"/>
+    <col customWidth="1" max="8" min="8" style="5" width="16.125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="13"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="19.125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="25.25"/>
+    <col customWidth="1" max="12" min="12" style="5" width="28.5"/>
+    <col customWidth="1" max="13" min="13" style="5" width="29.375"/>
+    <col customWidth="1" max="18" min="14" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="19" style="6" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>91</v>
       </c>
@@ -1319,42 +1321,52 @@
         <v>92</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="99.75" r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>103</v>
+      <c r="M2" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -142,7 +142,7 @@
     <t>40000</t>
   </si>
   <si>
-    <t>三监区</t>
+    <t>2-0</t>
   </si>
   <si>
     <t>个人</t>
@@ -330,7 +330,7 @@
     <t>计划内容</t>
   </si>
   <si>
-    <t>22</t>
+    <t>87</t>
   </si>
   <si>
     <t>abcdefghijklmnopqrstuvwxyz
@@ -747,8 +747,8 @@
     <col customWidth="1" max="4" min="4" style="5" width="28.25"/>
     <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="17.25"/>
     <col customWidth="1" max="6" min="6" style="5" width="16.375"/>
-    <col customWidth="1" max="13" min="7" style="2" width="9"/>
-    <col customWidth="1" max="16384" min="14" style="2" width="9"/>
+    <col customWidth="1" max="14" min="7" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="15" style="2" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
@@ -817,8 +817,8 @@
     <col bestFit="1" customWidth="1" max="4" min="4" style="5" width="22.125"/>
     <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="15.375"/>
     <col customWidth="1" max="7" min="6" style="5" width="16.375"/>
-    <col customWidth="1" max="14" min="8" style="2" width="9"/>
-    <col customWidth="1" max="16384" min="15" style="2" width="9"/>
+    <col customWidth="1" max="15" min="8" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="16" style="2" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:7">
@@ -881,8 +881,8 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -898,8 +898,8 @@
     <col customWidth="1" max="10" min="10" style="5" width="16.125"/>
     <col customWidth="1" max="11" min="11" style="5" width="28.25"/>
     <col bestFit="1" customWidth="1" max="12" min="12" style="5" width="15.375"/>
-    <col customWidth="1" max="19" min="13" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="20" style="6" width="9"/>
+    <col customWidth="1" max="20" min="13" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="21" style="6" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:12">
@@ -990,7 +990,7 @@
   </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -1007,8 +1007,8 @@
     <col customWidth="1" max="12" min="12" style="5" width="79.125"/>
     <col bestFit="1" customWidth="1" max="13" min="13" style="5" width="17.25"/>
     <col customWidth="1" max="14" min="14" style="5" width="59"/>
-    <col customWidth="1" max="21" min="15" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="22" style="6" width="9"/>
+    <col customWidth="1" max="22" min="15" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="23" style="6" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="31.5" r="1" s="1" spans="1:14">
@@ -1132,8 +1132,8 @@
     <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="33.875"/>
     <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="15.375"/>
     <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="70.5"/>
-    <col customWidth="1" max="18" min="12" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="19" style="6" width="9"/>
+    <col customWidth="1" max="19" min="12" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="20" style="6" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:11">
@@ -1231,8 +1231,8 @@
     <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
     <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
     <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="22.125"/>
-    <col customWidth="1" max="13" min="7" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="14" style="6" width="9"/>
+    <col customWidth="1" max="14" min="7" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="15" style="6" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
@@ -1289,7 +1289,7 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
       <selection activeCell="D6" sqref="D6"/>
       <selection activeCell="L2" pane="bottomLeft" sqref="L2"/>
@@ -1309,8 +1309,8 @@
     <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="25.25"/>
     <col customWidth="1" max="12" min="12" style="5" width="28.5"/>
     <col customWidth="1" max="13" min="13" style="5" width="29.375"/>
-    <col customWidth="1" max="18" min="14" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="19" style="6" width="9"/>
+    <col customWidth="1" max="19" min="14" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="20" style="6" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:13">

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="6"/>
+    <workbookView activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>项目编号</t>
   </si>
@@ -40,7 +40,7 @@
     <t>联系电话</t>
   </si>
   <si>
-    <t>43040004</t>
+    <t>43040005</t>
   </si>
   <si>
     <t>自主生产</t>
@@ -142,7 +142,7 @@
     <t>40000</t>
   </si>
   <si>
-    <t>2-0</t>
+    <t>二监区</t>
   </si>
   <si>
     <t>个人</t>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>2017-08-18</t>
-  </si>
-  <si>
-    <t>二监区</t>
   </si>
   <si>
     <t>合同内容
@@ -747,8 +744,8 @@
     <col customWidth="1" max="4" min="4" style="5" width="28.25"/>
     <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="17.25"/>
     <col customWidth="1" max="6" min="6" style="5" width="16.375"/>
-    <col customWidth="1" max="14" min="7" style="2" width="9"/>
-    <col customWidth="1" max="16384" min="15" style="2" width="9"/>
+    <col customWidth="1" max="15" min="7" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="16" style="2" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
@@ -817,8 +814,8 @@
     <col bestFit="1" customWidth="1" max="4" min="4" style="5" width="22.125"/>
     <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="15.375"/>
     <col customWidth="1" max="7" min="6" style="5" width="16.375"/>
-    <col customWidth="1" max="15" min="8" style="2" width="9"/>
-    <col customWidth="1" max="16384" min="16" style="2" width="9"/>
+    <col customWidth="1" max="16" min="8" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="17" style="2" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:7">
@@ -898,8 +895,8 @@
     <col customWidth="1" max="10" min="10" style="5" width="16.125"/>
     <col customWidth="1" max="11" min="11" style="5" width="28.25"/>
     <col bestFit="1" customWidth="1" max="12" min="12" style="5" width="15.375"/>
-    <col customWidth="1" max="20" min="13" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="21" style="6" width="9"/>
+    <col customWidth="1" max="21" min="13" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="22" style="6" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:12">
@@ -1007,8 +1004,8 @@
     <col customWidth="1" max="12" min="12" style="5" width="79.125"/>
     <col bestFit="1" customWidth="1" max="13" min="13" style="5" width="17.25"/>
     <col customWidth="1" max="14" min="14" style="5" width="59"/>
-    <col customWidth="1" max="22" min="15" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="23" style="6" width="9"/>
+    <col customWidth="1" max="23" min="15" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="24" style="6" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="31.5" r="1" s="1" spans="1:14">
@@ -1117,7 +1114,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -1132,8 +1129,8 @@
     <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="33.875"/>
     <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="15.375"/>
     <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="70.5"/>
-    <col customWidth="1" max="19" min="12" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="20" style="6" width="9"/>
+    <col customWidth="1" max="20" min="12" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="21" style="6" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:11">
@@ -1191,7 +1188,7 @@
         <v>78</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>41</v>
@@ -1200,7 +1197,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>45</v>
@@ -1231,22 +1228,22 @@
     <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
     <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
     <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="22.125"/>
-    <col customWidth="1" max="14" min="7" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="15" style="6" width="9"/>
+    <col customWidth="1" max="15" min="7" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="16" style="6" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>26</v>
@@ -1257,22 +1254,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1309,46 +1306,46 @@
     <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="25.25"/>
     <col customWidth="1" max="12" min="12" style="5" width="28.5"/>
     <col customWidth="1" max="13" min="13" style="5" width="29.375"/>
-    <col customWidth="1" max="19" min="14" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="20" style="6" width="9"/>
+    <col customWidth="1" max="20" min="14" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="21" style="6" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:13">
       <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>59</v>
@@ -1356,10 +1353,10 @@
     </row>
     <row customHeight="1" ht="99.75" r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>68</v>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -40,7 +40,7 @@
     <t>联系电话</t>
   </si>
   <si>
-    <t>43040005</t>
+    <t>53290024</t>
   </si>
   <si>
     <t>自主生产</t>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -40,7 +40,7 @@
     <t>联系电话</t>
   </si>
   <si>
-    <t>53290024</t>
+    <t>43040005</t>
   </si>
   <si>
     <t>自主生产</t>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\POM_LDGZ_OLD\textdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="4"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10335" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="劳动项目" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="客户信息" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="合同信息" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="项目基本资料" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="劳动合同" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="合同明细" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="生产计划" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
+    <sheet name="客户信息" sheetId="2" r:id="rId2"/>
+    <sheet name="合同信息" sheetId="3" r:id="rId3"/>
+    <sheet name="项目基本资料" sheetId="4" r:id="rId4"/>
+    <sheet name="劳动合同" sheetId="5" r:id="rId5"/>
+    <sheet name="合同明细" sheetId="6" r:id="rId6"/>
+    <sheet name="生产计划" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>项目编号</t>
   </si>
@@ -263,6 +268,69 @@
   </si>
   <si>
     <t>2017-08-18</t>
+  </si>
+  <si>
+    <t>手输型号</t>
+  </si>
+  <si>
+    <t>款式</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>XXL_180/185</t>
+  </si>
+  <si>
+    <t>运动系列</t>
+  </si>
+  <si>
+    <t>加大</t>
+  </si>
+  <si>
+    <t>JEANS</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>计划代号</t>
+  </si>
+  <si>
+    <t>计划类型</t>
+  </si>
+  <si>
+    <t>计划起日</t>
+  </si>
+  <si>
+    <t>计划止日</t>
+  </si>
+  <si>
+    <t>计划数量</t>
+  </si>
+  <si>
+    <t>监狱核算金额</t>
+  </si>
+  <si>
+    <t>逐日计划完成数量</t>
+  </si>
+  <si>
+    <t>计划内容</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz
+ABCDEFGHIJKLMNOPQRSTUVWXYZ
+~!@#$%^&amp;*()_+{}|:"&gt;?&lt;+-*/...
+计划内容</t>
   </si>
   <si>
     <t>合同内容
@@ -271,123 +339,69 @@
 合同内容
 合同内容
 合同内容</t>
-  </si>
-  <si>
-    <t>手输型号</t>
-  </si>
-  <si>
-    <t>款式</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>品牌</t>
-  </si>
-  <si>
-    <t>XXL_180/185</t>
-  </si>
-  <si>
-    <t>运动系列</t>
-  </si>
-  <si>
-    <t>加大</t>
-  </si>
-  <si>
-    <t>JEANS</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>计划代号</t>
-  </si>
-  <si>
-    <t>计划类型</t>
-  </si>
-  <si>
-    <t>计划起日</t>
-  </si>
-  <si>
-    <t>计划止日</t>
-  </si>
-  <si>
-    <t>计划数量</t>
-  </si>
-  <si>
-    <t>监狱核算金额</t>
-  </si>
-  <si>
-    <t>逐日计划完成数量</t>
-  </si>
-  <si>
-    <t>计划内容</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyz
-ABCDEFGHIJKLMNOPQRSTUVWXYZ
-~!@#$%^&amp;*()_+{}|:"&gt;?&lt;+-*/...
-计划内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同内容
+合同内容
+合同内容
+合同内容
+合同内容
+合同内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <sz val="16"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,27 +431,36 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -725,30 +748,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="B4" pane="bottomLeft" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="1" style="5" width="12.5"/>
-    <col customWidth="1" max="3" min="3" style="5" width="16.125"/>
-    <col customWidth="1" max="4" min="4" style="5" width="28.25"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="17.25"/>
-    <col customWidth="1" max="6" min="6" style="5" width="16.375"/>
-    <col customWidth="1" max="15" min="7" style="2" width="9"/>
-    <col customWidth="1" max="16384" min="16" style="2" width="9"/>
+    <col min="1" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="5" customWidth="1"/>
+    <col min="7" max="16" width="9" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -768,7 +788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -789,36 +809,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="33.875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="22.75"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="46"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="5" width="22.125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="15.375"/>
-    <col customWidth="1" max="7" min="6" style="5" width="16.375"/>
-    <col customWidth="1" max="16" min="8" style="2" width="9"/>
-    <col customWidth="1" max="16384" min="17" style="2" width="9"/>
+    <col min="1" max="1" width="33.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
+    <col min="8" max="17" width="9" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -841,7 +858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="8" spans="1:7">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -865,41 +882,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="22.125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="12.5"/>
-    <col customWidth="1" max="3" min="3" style="5" width="16.125"/>
-    <col customWidth="1" max="4" min="4" style="5" width="15.875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="5" width="15.375"/>
-    <col customWidth="1" max="7" min="6" style="5" width="16.375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="5" width="22.125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="12.5"/>
-    <col customWidth="1" max="10" min="10" style="5" width="16.125"/>
-    <col customWidth="1" max="11" min="11" style="5" width="28.25"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="5" width="15.375"/>
-    <col customWidth="1" max="21" min="13" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="22" style="6" width="9"/>
+    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="28.25" style="5" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="22" width="9" style="6" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -937,7 +951,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
@@ -956,15 +970,15 @@
       <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="4" t="n"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
+      <c r="J2" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>44</v>
@@ -974,41 +988,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="22.125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="16.125"/>
-    <col bestFit="1" customWidth="1" max="5" min="3" style="5" width="19.125"/>
-    <col bestFit="1" customWidth="1" max="7" min="6" style="5" width="16.125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="5" width="31.375"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="7.25"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="13"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="19.125"/>
-    <col customWidth="1" max="12" min="12" style="5" width="79.125"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="5" width="17.25"/>
-    <col customWidth="1" max="14" min="14" style="5" width="59"/>
-    <col customWidth="1" max="23" min="15" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="24" style="6" width="9"/>
+    <col min="1" max="1" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="79.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="59" style="5" customWidth="1"/>
+    <col min="15" max="24" width="9" style="6" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="31.5" r="1" s="1" spans="1:14">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -1052,7 +1063,7 @@
         <v>59</v>
       </c>
     </row>
-    <row customHeight="1" ht="57" r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
@@ -1096,44 +1107,41 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="L3" s="4" t="n"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="16.125"/>
-    <col customWidth="1" max="2" min="2" style="5" width="15.875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
-    <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="22.125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="5" width="12.5"/>
-    <col customWidth="1" max="8" min="8" style="5" width="16.125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="33.875"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="15.375"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="70.5"/>
-    <col customWidth="1" max="20" min="12" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="21" style="6" width="9"/>
+    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="33.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="70.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="21" width="9" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1176,7 @@
         <v>73</v>
       </c>
     </row>
-    <row customHeight="1" ht="85.5" r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1197,53 +1205,50 @@
         <v>18</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="16.125"/>
-    <col customWidth="1" max="2" min="2" style="5" width="15.875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
-    <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="22.125"/>
-    <col customWidth="1" max="15" min="7" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="16" style="6" width="9"/>
+    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="9" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>26</v>
@@ -1252,118 +1257,116 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection activeCell="L2" pane="bottomLeft" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="16.125"/>
-    <col customWidth="1" max="2" min="2" style="5" width="15.875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="15.375"/>
-    <col customWidth="1" max="5" min="4" style="5" width="16.375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="5" width="13"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="5" width="12.5"/>
-    <col customWidth="1" max="8" min="8" style="5" width="16.125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="13"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="19.125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="25.25"/>
-    <col customWidth="1" max="12" min="12" style="5" width="28.5"/>
-    <col customWidth="1" max="13" min="13" style="5" width="29.375"/>
-    <col customWidth="1" max="20" min="14" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="21" style="6" width="9"/>
+    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="29.375" style="5" customWidth="1"/>
+    <col min="14" max="21" width="9" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27" r="1" s="1" spans="1:13">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row customHeight="1" ht="99.75" r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10335" activeTab="6"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="23070" windowHeight="10335" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
@@ -66,12 +66,6 @@
     <t>合作方单位名称</t>
   </si>
   <si>
-    <t>负责人</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
     <t>营业执照注册号</t>
   </si>
   <si>
@@ -348,6 +342,14 @@
 合同内容
 合同内容
 合同内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +756,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -820,7 +822,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -840,51 +842,51 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -892,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -905,86 +907,86 @@
     <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.125" style="5" customWidth="1"/>
     <col min="11" max="11" width="28.25" style="5" customWidth="1"/>
-    <col min="12" max="12" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="70.5" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="22" width="9" style="6" customWidth="1"/>
     <col min="23" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -998,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1021,90 +1023,90 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1146,34 +1148,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1181,34 +1183,34 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1239,42 +1241,42 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D6" sqref="D6"/>
       <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
@@ -1314,54 +1316,54 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="23070" windowHeight="10335" activeTab="3"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="23070" windowHeight="10335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>项目编号</t>
   </si>
@@ -69,9 +69,6 @@
     <t>营业执照注册号</t>
   </si>
   <si>
-    <t>传真电话</t>
-  </si>
-  <si>
     <t>注册资金</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>420116000062378</t>
   </si>
   <si>
-    <t>027-88888888</t>
-  </si>
-  <si>
     <t>027-77777777</t>
   </si>
   <si>
@@ -160,36 +154,6 @@
   </si>
   <si>
     <t>投入劳动力人数</t>
-  </si>
-  <si>
-    <t>项目投资额</t>
-  </si>
-  <si>
-    <t>设备台（套）</t>
-  </si>
-  <si>
-    <t>企业自有设备</t>
-  </si>
-  <si>
-    <t>客户投入设备</t>
-  </si>
-  <si>
-    <t>项目年收入</t>
-  </si>
-  <si>
-    <t>月人均收入</t>
-  </si>
-  <si>
-    <t>水电、房租等成本费用</t>
-  </si>
-  <si>
-    <t>利润</t>
-  </si>
-  <si>
-    <t>风险等级</t>
-  </si>
-  <si>
-    <t>风险评估附件</t>
   </si>
   <si>
     <t>项目评估</t>
@@ -350,6 +314,58 @@
   </si>
   <si>
     <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目投资额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备台（套）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业自有设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户投入设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目年收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月人均收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电、房租等成本费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险评估附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户负责人联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>027-88888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -831,7 +847,7 @@
     <col min="2" max="2" width="22.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.375" style="5" customWidth="1"/>
     <col min="8" max="17" width="9" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
@@ -842,45 +858,45 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -917,76 +933,76 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1000,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1023,90 +1039,90 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1148,34 +1164,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1183,34 +1199,34 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1241,42 +1257,42 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1316,54 +1332,54 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="23070" windowHeight="10335" activeTab="1"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="23070" windowHeight="10335" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
@@ -300,15 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合同内容
-合同内容
-合同内容
-合同内容
-合同内容
-合同内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,6 +357,10 @@
   </si>
   <si>
     <t>传真号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵三枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -858,19 +853,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>14</v>
@@ -890,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>19</v>
@@ -910,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -969,7 +964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="85.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -996,7 +991,7 @@
         <v>39</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>40</v>
@@ -1016,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1029,10 +1024,10 @@
     <col min="8" max="8" width="31.375" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="79.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="32.375" style="5" customWidth="1"/>
     <col min="13" max="13" width="17.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59" style="5" customWidth="1"/>
+    <col min="14" max="14" width="36.5" style="5" customWidth="1"/>
     <col min="15" max="24" width="9" style="6" customWidth="1"/>
     <col min="25" max="16384" width="9" style="6"/>
   </cols>
@@ -1042,34 +1037,34 @@
         <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>43</v>
@@ -1112,7 +1107,7 @@
       <c r="J2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -1140,7 +1135,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="23070" windowHeight="10335" activeTab="3"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="23070" windowHeight="10335" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="23070" windowHeight="10335" activeTab="3"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="23070" windowHeight="10335" tabRatio="698" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,17 @@
     <sheet name="合同信息" sheetId="3" r:id="rId3"/>
     <sheet name="项目基本资料" sheetId="4" r:id="rId4"/>
     <sheet name="劳动合同" sheetId="5" r:id="rId5"/>
-    <sheet name="合同明细" sheetId="6" r:id="rId6"/>
-    <sheet name="生产计划" sheetId="7" r:id="rId7"/>
+    <sheet name="生产计划" sheetId="7" r:id="rId6"/>
+    <sheet name="合同明细" sheetId="6" r:id="rId7"/>
+    <sheet name="合同_合同备案" sheetId="9" r:id="rId8"/>
+    <sheet name="合同_合同明细" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
   <si>
     <t>项目编号</t>
   </si>
@@ -121,9 +123,6 @@
   </si>
   <si>
     <t>合同附件</t>
-  </si>
-  <si>
-    <t>XXL180/185</t>
   </si>
   <si>
     <t>500</t>
@@ -361,6 +360,131 @@
   </si>
   <si>
     <t>赵三枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签订日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>款式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤子服装加工合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-09-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三监区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海藤子服饰有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\Desktop\劳改测试文档资料\07、上传下载\上传\上海藤子服饰有限公司服装加工合同.docx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXL_180/180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXL185/185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号:XXL_180/180
+款式:款式
+规格:大
+品牌：JEANS
+数量：5000
+单价：44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,7 +957,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -853,19 +977,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>14</v>
@@ -885,7 +1009,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>19</v>
@@ -905,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -966,38 +1090,38 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1034,90 +1158,90 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1162,13 +1286,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>28</v>
@@ -1180,13 +1304,13 @@
         <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1194,34 +1318,34 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1232,72 +1356,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16" width="9" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -1327,54 +1385,54 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="M2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1382,4 +1440,232 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="9" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="9" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="9" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="23070" windowHeight="10335" tabRatio="698" activeTab="8"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="23070" windowHeight="10335" tabRatio="698" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
   <si>
     <t>项目编号</t>
   </si>
@@ -89,9 +89,6 @@
     <t>027-77777777</t>
   </si>
   <si>
-    <t>30000.000000</t>
-  </si>
-  <si>
     <t>产品型号</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
   </si>
   <si>
     <t>个人</t>
-  </si>
-  <si>
-    <t>2017-08-10</t>
   </si>
   <si>
     <t>第一次交货根据质量标准，经仓库及跟单员验收确认后，交付总货款的:  60%</t>
@@ -485,6 +479,18 @@
   </si>
   <si>
     <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000.0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-11-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +897,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -948,7 +954,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -957,7 +963,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -977,19 +983,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>14</v>
@@ -1009,13 +1015,13 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1029,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1052,82 +1058,82 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1135,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1158,90 +1164,90 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1250,7 +1256,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1283,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1318,34 +1324,34 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1385,54 +1391,54 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1463,42 +1469,42 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1533,68 +1539,68 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1625,42 +1631,42 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/textdata/劳动项目与计划管理.xlsx
+++ b/textdata/劳动项目与计划管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\POM_LDGZ_OLD\textdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01____WORKSTATIONS\PYTHON\POM_LDGZ_OLD\textdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="23070" windowHeight="10335" tabRatio="698" activeTab="3"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18255" windowHeight="5535" tabRatio="698" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="劳动项目" sheetId="1" r:id="rId1"/>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1614,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
